--- a/docs/Metadata bestand.xlsx
+++ b/docs/Metadata bestand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OZ-Huisartsgeneeskunde\TN-PCNN\PCNN-WP2\Dana eigen documenten\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072085FB-DB1B-41FA-BF0B-DCFAFF1D40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732FD8C6-DF25-46C3-A65F-C0A59913C389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{98710EBE-E6E6-4D3B-9A80-CC61A6D74A08}"/>
   </bookViews>
@@ -2304,7 +2304,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
